--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2694384.755156309</v>
+        <v>2798564.389607379</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>75.4571321610379</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>241.024192311275</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -820,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>144.1406215660495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>17.30559602544859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>149.3745035260465</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.063910705649566</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8239764245722</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>93.14364866352253</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>258.1603528788136</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.2480189963552</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>16.44765383817532</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>246.8483712499531</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>39.38542099944468</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.9154861872845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>107.3178054178675</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>5.640152769375668</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>35.02467705292147</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605713017</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>72.78315874934748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>31.83025205764069</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>159.2661870898842</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.6099304363192</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>102.6244980900706</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>14.19454216862693</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>45.17596778974989</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>210.7043627510575</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>32.81060261323955</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>90.48716302792806</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>59.67415913389148</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>34.03048557919021</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>176.2740711281116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6594061764999</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>90.48716302792086</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>773.9857462093207</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>773.9857462093207</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>767.0402454601173</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>351.9677953051137</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4343,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.619250712236</v>
+        <v>212.1087038726374</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>212.1087038726374</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>903.4066057924794</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>614.3037389181229</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V4" t="n">
-        <v>359.619250712236</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="W4" t="n">
-        <v>359.619250712236</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="X4" t="n">
-        <v>359.619250712236</v>
+        <v>212.1087038726374</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.619250712236</v>
+        <v>212.1087038726374</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>568.0079985935433</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>568.0079985935433</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501.2115707469939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C7" t="n">
-        <v>501.2115707469939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4759,16 +4761,16 @@
         <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450112</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="X7" t="n">
-        <v>501.2115707469939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="Y7" t="n">
-        <v>501.2115707469939</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>994.1614947556889</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>635.8957961489384</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>635.8957961489384</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W8" t="n">
-        <v>2765.652537847403</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1749.723851760222</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.1280466398576</v>
+        <v>229.3430949700583</v>
       </c>
       <c r="C10" t="n">
-        <v>382.1280466398576</v>
+        <v>229.3430949700583</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>229.3430949700583</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>671.5452166768182</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V10" t="n">
-        <v>671.5452166768182</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W10" t="n">
-        <v>382.1280466398576</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="X10" t="n">
-        <v>382.1280466398576</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.1280466398576</v>
+        <v>410.991559800298</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408906</v>
+        <v>990.5373202159259</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>821.601137288019</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>671.4844978756832</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711304</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101821</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>572.9069687101821</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F16" t="n">
-        <v>426.0170212122717</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951537</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5929,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5971,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362703</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797359</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841098</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998684</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>2809.580065774029</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>2659.463426361693</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>2511.5503327793</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>2002.343823311048</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.268596655246</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V25" t="n">
-        <v>1458.584108449359</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.166938412398</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143809</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>923.067041434951</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499465</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571558</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159222</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995193</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.027733789306</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W28" t="n">
-        <v>3790.610563752345</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.065179473235</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329705</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797184</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239595</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565533</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214205</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>2877.862713286298</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>2877.862713286298</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>2729.949619703905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2583.059672205995</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328839</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328839</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122953</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085992</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187975</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044445</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>3200.825397924058</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>3031.889214996151</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2881.772575583815</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2733.859482001422</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.969534503512</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>2334.285089135946</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>3939.024698002566</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>3649.607527965605</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>3421.617977067588</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>3200.825397924058</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>815.9830526793652</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>665.8664132670294</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>517.9533196846363</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2105.661370711882</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7184,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>3511.325458604699</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>4138.923422159306</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.88921499615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583814</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4630.556223980521</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4447.701389635426</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4228.099924658367</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3939.024698002565</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3939.024698002565</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3649.607527965604</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3421.617977067587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3200.825397924057</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.543151974895</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.941686997836</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796746</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868839</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456504</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874111</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.4852663762</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.4852663762</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218398</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866312</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296636</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822175</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998115</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.02030972915</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389158</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
         <v>4278.959462098135</v>
@@ -7834,22 +7836,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4349.531439530222</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4060.45621287442</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>3805.771724668533</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3805.771724668533</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X46" t="n">
-        <v>3577.782173770516</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y46" t="n">
-        <v>3356.989594626986</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>107.0485416471245</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.6691671648103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>58.20633287440137</v>
+        <v>112.2233770574205</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.7652975579126</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>183.5599762991733</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124993</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>179.3544845744805</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>113.5907959652906</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.9182872993599</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>34.09972495271796</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.89964020219823</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>271.9899322206172</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.2294825375384</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>41.43328057277054</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>112.6104454096917</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.701087576230208</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>146.9958004224544</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.31058222398323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5874149221278913</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>126.9182872993674</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735511</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687961</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687977</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26451,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687956</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550044</v>
+        <v>-852915.9702550049</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725878</v>
+        <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725881</v>
+        <v>475828.7754725879</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.3131061126</v>
+        <v>223924.3131061124</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.7749134684</v>
+        <v>549336.774913468</v>
       </c>
       <c r="G6" t="n">
-        <v>549336.7749134683</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.7749134683</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="I6" t="n">
         <v>549336.7749134684</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161906</v>
+        <v>331805.5725161908</v>
       </c>
       <c r="K6" t="n">
         <v>549336.7749134682</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134678</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779564</v>
+        <v>464281.7469779562</v>
       </c>
       <c r="N6" t="n">
-        <v>549336.774913468</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.774913468</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.7749134685</v>
+        <v>549336.7749134682</v>
       </c>
     </row>
   </sheetData>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.58357207604541</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>4.474851452162881</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,22 +27587,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>202.2433532507206</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>257.501542215665</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.174027950404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.7914965936401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>193.3793496730685</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>148.7156928628979</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>107.9929497210578</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.9863088083939</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>39.36346695565976</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29518,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-5.844418180573881e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>167.4835451665585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817577</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32546,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,10 +32560,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>269.1634560719501</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718169</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>302.5540177178164</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>690.2058188111479</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>345.6771571865346</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P36" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576914</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>25.34951124454015</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>127.0294221499318</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36297,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998946</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974579</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2123056344831</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>547.6095743667034</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>207.1227774066604</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P36" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060375</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798564.389607379</v>
+        <v>2794551.779593389</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797265.295567479</v>
+        <v>8797265.295567481</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>195.3635206396358</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>241.024192311275</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609191</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>144.1406215660495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.50286836346273</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3745035260465</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>56.91547624318528</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.5003107098658</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>93.14364866352253</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>258.1603528788136</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>257.8477491668951</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44765383817532</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>39.38542099944468</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.15381658332907</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>53.30076123484837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.02467705292147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605713017</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.83025205764069</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.2661870898842</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>14.19454216862693</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>210.7043627510575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>32.81060261323955</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>121.8000472740351</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>206.4234087294969</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>34.03048557919021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>166.6594061764999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>265.1755449233449</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756483</v>
+        <v>1859.132475219473</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.251444816071</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D2" t="n">
-        <v>773.9857462093207</v>
+        <v>1131.904259672311</v>
       </c>
       <c r="E2" t="n">
-        <v>773.9857462093207</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>767.0402454601173</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>351.9677953051137</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820605</v>
+        <v>2245.732315283595</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.1087038726374</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>212.1087038726374</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>440.0982547706548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>440.0982547706548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>440.0982547706548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>212.1087038726374</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.1087038726374</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002938</v>
+        <v>1279.042352470407</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935433</v>
+        <v>920.7766538636567</v>
       </c>
       <c r="E5" t="n">
-        <v>568.0079985935433</v>
+        <v>534.9884012654124</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>124.0024964758049</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396066</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>474.5166334391243</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>380.4321398396066</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>380.4321398396066</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.4321398396066</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.124011696101</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C8" t="n">
-        <v>994.1614947556889</v>
+        <v>1524.00114307307</v>
       </c>
       <c r="D8" t="n">
-        <v>635.8957961489384</v>
+        <v>1165.735444466319</v>
       </c>
       <c r="E8" t="n">
-        <v>635.8957961489384</v>
+        <v>779.9471918680749</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>368.9612870784674</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736034</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760222</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.3430949700583</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>229.3430949700583</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>229.3430949700583</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.991559800298</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.5373202159259</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C13" t="n">
-        <v>821.601137288019</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D13" t="n">
-        <v>671.4844978756832</v>
+        <v>449.4852666057164</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>301.5721730233233</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>301.5721730233233</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>134.3760737382033</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740068</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121611</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5931,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.91737983266</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487564</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510505</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854703</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648816</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611855</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138379</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703078</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2978.516248701936</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>2809.580065774029</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>2659.463426361693</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2511.5503327793</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2479.398563024107</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,7 +6733,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200.825397924058</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.889214996151</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583815</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001422</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503512</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218392</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3939.024698002566</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3649.607527965605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3421.617977067588</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3200.825397924058</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>815.9830526793652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>665.8664132670294</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>517.9533196846363</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2418.621364762389</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>2913.946970978147</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>3511.325458604699</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>4138.923422159306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277359</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277359</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>216.8470138298256</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2345.543151974895</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2125.941686997836</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1836.866460342034</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.866460342034</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3047.140839595365</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>2878.798005073648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.581883569135</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.789304425605</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.0485416471245</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.1408962628948</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.5599762991733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124993</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>113.5907959652906</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.9182872993599</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.9899322206172</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.43328057277054</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>112.6104454096917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.72409101823371</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>19.28624665954021</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>146.9958004224544</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5874149221278913</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>21.0089294658992</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
@@ -26349,13 +26349,13 @@
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687961</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687964</v>
-      </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550049</v>
+        <v>-852915.9702550038</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725874</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725879</v>
+        <v>475828.7754725884</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.3131061124</v>
+        <v>223576.9338517557</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.774913468</v>
+        <v>548989.3956591117</v>
       </c>
       <c r="G6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="I6" t="n">
-        <v>549336.7749134684</v>
+        <v>548989.3956591113</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161908</v>
+        <v>331458.1932618337</v>
       </c>
       <c r="K6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779562</v>
+        <v>463934.3677235991</v>
       </c>
       <c r="N6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591113</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591114</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>186.566849432626</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.58357207604541</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>4.474851452162881</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>159.0817849886321</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>257.501542215665</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>354.0062494102682</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.33166947207145</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>193.3793496730685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>148.7156928628979</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>153.0739764865583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.9863088083939</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.191679717556693e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33970,19 +33970,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.605272155109</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34210,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297443</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998946</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>57.74979223202556</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2000925419561</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075003</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37639,13 +37639,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553853</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37876,10 +37876,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2794551.779593389</v>
+        <v>2796312.309896173</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797265.295567481</v>
+        <v>8797265.295567479</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>195.3635206396358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>329.7471118335088</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609191</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>131.8084029749505</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.50286836346273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>136.3896895755416</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>56.91547624318528</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.5003107098658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>257.8477491668951</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>26.36535177770062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560543</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H13" t="n">
-        <v>40.15381658332907</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444154</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.36264995189759</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>113.707646477138</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4234087294969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>73.97774435452091</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>265.1755449233449</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219473</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.169958279062</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D2" t="n">
-        <v>1131.904259672311</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>739.1705063248654</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283595</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>199.6519174169819</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>199.6519174169819</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>199.6519174169819</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>199.6519174169819</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>199.6519174169819</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>381.3003822472216</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410819</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470407</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>920.7766538636567</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>534.9884012654124</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>124.0024964758049</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474941</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158135</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.5187033424295</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300937</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766374</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013481</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.00114307307</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1165.735444466319</v>
+        <v>900.9499883969586</v>
       </c>
       <c r="E8" t="n">
-        <v>779.9471918680749</v>
+        <v>515.1617357987143</v>
       </c>
       <c r="F8" t="n">
-        <v>368.9612870784674</v>
+        <v>104.1758310091067</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>93.14378489450728</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>93.14378489450728</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989293</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013481</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123004</v>
@@ -5086,7 +5086,7 @@
         <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057164</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233233</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>301.5721730233233</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>134.3760737382033</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179017</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863899948</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776591</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776591</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776591</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>276.298847692539</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>134.5870165347371</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5448,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235158</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258099</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602297</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.74706939641</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359449</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614319</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179017</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2414.36154645157</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.286319795768</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362704</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908938</v>
@@ -6378,10 +6378,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -7019,22 +7019,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7262,10 +7262,10 @@
         <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1408962628948</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>40.90318636666793</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>25.7450400779608</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28624665954021</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>107.0485416471237</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>21.0089294658992</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687956</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687958</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687958</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687962</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550038</v>
+        <v>-852915.9702550045</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725874</v>
+        <v>475828.7754725876</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725884</v>
+        <v>475828.775472588</v>
       </c>
       <c r="E6" t="n">
-        <v>223576.9338517557</v>
+        <v>223889.5751806769</v>
       </c>
       <c r="F6" t="n">
-        <v>548989.3956591117</v>
+        <v>549302.036988033</v>
       </c>
       <c r="G6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="H6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="I6" t="n">
-        <v>548989.3956591113</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="J6" t="n">
-        <v>331458.1932618337</v>
+        <v>331770.8345907552</v>
       </c>
       <c r="K6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880326</v>
       </c>
       <c r="L6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880326</v>
       </c>
       <c r="M6" t="n">
-        <v>463934.3677235991</v>
+        <v>464247.0090525206</v>
       </c>
       <c r="N6" t="n">
-        <v>548989.3956591113</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="O6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="P6" t="n">
-        <v>548989.3956591114</v>
+        <v>549302.0369880325</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>186.566849432626</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>81.17461381994468</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>34.21740528407776</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.0817849886321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>228.8832021954659</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>354.0062494102682</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.33166947207145</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>153.0739764865583</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.21157799522533</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.191679717556693e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33982,13 +33982,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899003</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
